--- a/DATA MODELING/SimpleLinearRegression/DAX formulas.xlsx
+++ b/DATA MODELING/SimpleLinearRegression/DAX formulas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.maramotti\Documents\800 - PERSONALE\Formazione\OUT\BUSINESS INTELLIGENCE\POWERBI\TEMPLATES\LinearRegression2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FC162D-5A74-4FC1-A8C6-0E0FE1AE16CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,126 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+  <si>
+    <t>MATH FORMULA</t>
+  </si>
+  <si>
+    <t>DAX FORMULA</t>
+  </si>
+  <si>
+    <t>xy</t>
+  </si>
+  <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>xy = prezzo_carburante[monthprogression]*prezzo_carburante[prezzo]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">xsq = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF001080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>prezzo_carburante[monthprogression]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>^</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF09885A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>SUM(xy)</t>
+  </si>
+  <si>
+    <t>SUM(x)</t>
+  </si>
+  <si>
+    <t>SUM(y)</t>
+  </si>
+  <si>
+    <t>SUM(x^2)</t>
+  </si>
+  <si>
+    <t>m (slope)</t>
+  </si>
+  <si>
+    <t>b (intercept)</t>
+  </si>
+  <si>
+    <t>n = 
+//The formulas for m and b in the equation y = mx + b require n, which is the sample size. The sample size is calculated by counting the number of rows in the prezzo_carburante table. 
+COUNTROWS(prezzo_carburante)</t>
+  </si>
+  <si>
+    <t>xysum = SUM(prezzo_carburante[xy])</t>
+  </si>
+  <si>
+    <t>xsum = SUM(prezzo_carburante[monthprogression])</t>
+  </si>
+  <si>
+    <t>ysum = SUM(prezzo_carburante[prezzo])</t>
+  </si>
+  <si>
+    <t>xsqrsum = SUM(prezzo_carburante[xsq])</t>
+  </si>
+  <si>
+    <t>m (Slope) = 
+////Linear Regression formula for the component m (Slope) in the equation of a line y = mx + b
+DIVIDE(
+   [n]*[xysum]-[Xsum]*[Ysum],
+    [n]*[xsqrsum]-[Xsum]^2,0
+)</t>
+  </si>
+  <si>
+    <t>b (Intercept) = 
+//Linear Regression formula for the component b (Intercept) in the equation of a line y = mx + b
+DIVIDE(
+    [ysum]*[xsqrsum]-[Xsum]*[xysum],
+    [n]*[xsqrsum]-[Xsum]^2,0
+)</t>
+  </si>
+  <si>
+    <t>Predicted price = 
+//Predicted fuel price is calculated by y = mx + b. We are using measures created for m and b, and using a what if parameter for x to complete this formula 
+([m (Slope)]*
+'MonthProgression'[MonthProgression Value]+
+[b (Intercept)]
+)</t>
+  </si>
+  <si>
+    <t>y = mx + b</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +151,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF001080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF09885A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +207,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{A062A416-0D31-4F91-B4C8-6D25F74A899B}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +527,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="136.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>